--- a/GVT2-2111910627.xlsx
+++ b/GVT2-2111910627.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroupcan-my.sharepoint.com/personal/rommel_galvan_bayer_com/Documents/Personal Data/Current Projects/Book Consumption/Book_Consumption/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_E7AC700E1D45DC1F6E36583641927EB97750450F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43AA2F10-BBCF-4420-8F34-849D125CF2F9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="57480" yWindow="-5295" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2111910627" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Material Type</t>
   </si>
@@ -34,101 +53,86 @@
     <t>Finished Good</t>
   </si>
   <si>
+    <t>B0590</t>
+  </si>
+  <si>
+    <t>5779</t>
+  </si>
+  <si>
     <t>Bulk</t>
   </si>
   <si>
-    <t>2111910627</t>
-  </si>
-  <si>
-    <t>843751888</t>
+    <t>BXK2AZ2</t>
+  </si>
+  <si>
+    <t>171766</t>
+  </si>
+  <si>
+    <t>B0585</t>
+  </si>
+  <si>
+    <t>9966</t>
+  </si>
+  <si>
+    <t>BXK2G41</t>
+  </si>
+  <si>
+    <t>304600</t>
+  </si>
+  <si>
+    <t>B0584</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>BXK2G48</t>
+  </si>
+  <si>
+    <t>78816</t>
+  </si>
+  <si>
+    <t>B0586</t>
+  </si>
+  <si>
+    <t>BXK2G46</t>
+  </si>
+  <si>
+    <t>296200</t>
+  </si>
+  <si>
+    <t>B0587</t>
+  </si>
+  <si>
+    <t>BXK2G49</t>
+  </si>
+  <si>
+    <t>318300</t>
+  </si>
+  <si>
+    <t>B0588</t>
+  </si>
+  <si>
+    <t>BXK2AZ1</t>
+  </si>
+  <si>
+    <t>330350</t>
   </si>
   <si>
     <t>B0589</t>
   </si>
   <si>
-    <t>BXKZA27</t>
-  </si>
-  <si>
-    <t>B0585</t>
-  </si>
-  <si>
-    <t>BXZG41</t>
-  </si>
-  <si>
-    <t>B0584</t>
-  </si>
-  <si>
-    <t>BXZG48</t>
-  </si>
-  <si>
-    <t>B0586</t>
-  </si>
-  <si>
-    <t>BXZG46</t>
-  </si>
-  <si>
-    <t>B0587</t>
-  </si>
-  <si>
-    <t>BXZG49</t>
-  </si>
-  <si>
-    <t>B0588</t>
-  </si>
-  <si>
-    <t>BXKZA21</t>
-  </si>
-  <si>
-    <t>BXKZA23</t>
-  </si>
-  <si>
-    <t>5779</t>
-  </si>
-  <si>
-    <t>171766</t>
-  </si>
-  <si>
-    <t>9966</t>
-  </si>
-  <si>
-    <t>304600</t>
-  </si>
-  <si>
-    <t>2541</t>
-  </si>
-  <si>
-    <t>78816</t>
-  </si>
-  <si>
-    <t>10793</t>
-  </si>
-  <si>
-    <t>296200</t>
-  </si>
-  <si>
-    <t>10439</t>
-  </si>
-  <si>
-    <t>318300</t>
-  </si>
-  <si>
-    <t>5035</t>
-  </si>
-  <si>
-    <t>330350</t>
+    <t>BXK2AZ3</t>
   </si>
   <si>
     <t>315750</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +195,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +247,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -269,6 +281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,9 +316,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,14 +492,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,225 +524,200 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>86617870</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>84375188</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>86617870</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>84375188</v>
+      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6">
+        <v>86617870</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="B7">
+        <v>84375188</v>
+      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8">
+        <v>86617870</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>9738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>84375188</v>
+      </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10">
+        <v>86617870</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>10491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="B11">
+        <v>84375188</v>
+      </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12">
+        <v>86617870</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>10935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="B13">
+        <v>84375188</v>
+      </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>86617870</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
+      <c r="B15">
+        <v>84375188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GVT2-2111910627.xlsx
+++ b/GVT2-2111910627.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroupcan-my.sharepoint.com/personal/rommel_galvan_bayer_com/Documents/Personal Data/Current Projects/Book Consumption/Book_Consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_E7AC700E1D45DC1F6E36583641927EB97750450F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43AA2F10-BBCF-4420-8F34-849D125CF2F9}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_85B01D6E5B74C29E6F43743659C15EFA89EE636C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC13280-BB7A-46D3-96F9-21D00CD7C273}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-5295" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2111910627" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Material Type</t>
   </si>
@@ -50,6 +50,12 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Finished Good</t>
   </si>
   <si>
@@ -126,13 +132,16 @@
   </si>
   <si>
     <t>315750</t>
+  </si>
+  <si>
+    <t>System QTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +157,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,18 +196,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +541,10 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,203 +558,366 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>86617870</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>5795</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F15" si="0">D2-E2</f>
+        <v>-16</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G15" si="1">F2/D2</f>
+        <v>-2.7686450943069734E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>84375188</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>474474.00000000012</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-302708.00000000012</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.7623278180780837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>86617870</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>9962</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>4.013646397752358E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>84375188</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>304600</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>86617870</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>2537</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5741833923652105E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>84375188</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>316150</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-237334</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.0112413723101907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>86617870</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>9738</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>9734</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1076196344218524E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>84375188</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>296200</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>86617870</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>10491</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>10487</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8127919168811362E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>84375188</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>318300</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>86617870</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>10935</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>10931</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6579789666209419E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>84375188</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>330350</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>86617870</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>10530</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>10526</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7986704653371318E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>84375188</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>315750</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
